--- a/biology/Microbiologie/Pseudomonas_fluorescens/Pseudomonas_fluorescens.xlsx
+++ b/biology/Microbiologie/Pseudomonas_fluorescens/Pseudomonas_fluorescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pseudomonas fluorescens est un des sous-groupes bactériens appartenant au groupe des Pseudomonas fluorescens[3].
-Les souches appartenant à ce sous-groupe sont à Gram négatif (KOH positif), oxydase positive, en forme de bâtonnet. Elle est mobile grâce à ses multiples flagelles. De plus, elle tient la deuxième partie de son nom (fluorescens) du fait qu'elle est fluorescente. Cette fluorescence est due à la production d'un pigment appelé pyoverdine[4]. Sa température de croissance optimale se situe entre 25 et 30 degrés Celsius.
+Pseudomonas fluorescens est un des sous-groupes bactériens appartenant au groupe des Pseudomonas fluorescens.
+Les souches appartenant à ce sous-groupe sont à Gram négatif (KOH positif), oxydase positive, en forme de bâtonnet. Elle est mobile grâce à ses multiples flagelles. De plus, elle tient la deuxième partie de son nom (fluorescens) du fait qu'elle est fluorescente. Cette fluorescence est due à la production d'un pigment appelé pyoverdine. Sa température de croissance optimale se situe entre 25 et 30 degrés Celsius.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Interactions avec les végétaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses bactéries appartenant à ce sous-groupe bactérien sont retrouvées au niveau de la zone de sol sous l'influence des racines de plantes (rhizosphère). Certaines souches appartenant à ce sous-groupe montrent même des effets bénéfiques pour la plante (suppressivité des sols)[5] et sont alors qualifiées de PGPR (Plant Growth-Promoting Rhizobacteria).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses bactéries appartenant à ce sous-groupe bactérien sont retrouvées au niveau de la zone de sol sous l'influence des racines de plantes (rhizosphère). Certaines souches appartenant à ce sous-groupe montrent même des effets bénéfiques pour la plante (suppressivité des sols) et sont alors qualifiées de PGPR (Plant Growth-Promoting Rhizobacteria).
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Contamination de produits alimentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La contamination de fromages par P. fluorescens est possible, la bactérie étant très présente dans l’environnement des vaches laitières (sol et plantes). Elle a pour conséquence de graves défauts sur les fromages : taches, défauts de goûts, défauts d’aspect des croûtes[6].
-Ainsi, en juin 2010, des consommateurs ont vu leur mozzarella (produite en Allemagne) virer au bleu à l'ouverture de leur sachet. Cette couleur a été attribuée à une contamination par P. fluorescens[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La contamination de fromages par P. fluorescens est possible, la bactérie étant très présente dans l’environnement des vaches laitières (sol et plantes). Elle a pour conséquence de graves défauts sur les fromages : taches, défauts de goûts, défauts d’aspect des croûtes.
+Ainsi, en juin 2010, des consommateurs ont vu leur mozzarella (produite en Allemagne) virer au bleu à l'ouverture de leur sachet. Cette couleur a été attribuée à une contamination par P. fluorescens.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste de souches appartenant à ce sous-groupe bactérien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 sept. 2011)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 sept. 2011) :
 Pseudomonas fluorescens A506
 Pseudomonas fluorescens BBc6R8
 Pseudomonas fluorescens HK44
